--- a/Doc/Naughty Cat Gantt.xlsx
+++ b/Doc/Naughty Cat Gantt.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="136">
   <si>
     <t>Total</t>
   </si>
@@ -181,9 +181,39 @@
     <t>Installation</t>
   </si>
   <si>
+    <t>Create Sprite</t>
+  </si>
+  <si>
+    <t>Create Dog Class</t>
+  </si>
+  <si>
+    <t>Create Zombie Dog Subclass</t>
+  </si>
+  <si>
+    <t>Animation</t>
+  </si>
+  <si>
+    <t>Sprite Attack</t>
+  </si>
+  <si>
+    <t>Sprite Damage</t>
+  </si>
+  <si>
+    <t>Death Processes</t>
+  </si>
+  <si>
+    <t>Leveling Difficulty</t>
+  </si>
+  <si>
     <t>5,7</t>
   </si>
   <si>
+    <t>Sprite AI</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
     <t xml:space="preserve">Research Inventory </t>
   </si>
   <si>
@@ -259,7 +289,7 @@
     <t>Meeting about roles &amp; documents</t>
   </si>
   <si>
-    <t>Worked On SA presentation</t>
+    <t>Worked On final SA presentation</t>
   </si>
   <si>
     <t>Ananlysis Integration</t>
@@ -283,6 +313,9 @@
     <t>Hours</t>
   </si>
   <si>
+    <t>bingus</t>
+  </si>
+  <si>
     <t>Task</t>
   </si>
   <si>
@@ -292,7 +325,103 @@
     <t>spent(hrs)</t>
   </si>
   <si>
+    <t>Class Diagram</t>
+  </si>
+  <si>
+    <t>Sequence Diagram</t>
+  </si>
+  <si>
+    <t>Use Case</t>
+  </si>
+  <si>
+    <t>Diagram 0/Level 1</t>
+  </si>
+  <si>
+    <t>SA Presentation</t>
+  </si>
+  <si>
+    <t>RFP -  Current systems</t>
+  </si>
+  <si>
+    <t>Pert &amp; GanttChart</t>
+  </si>
+  <si>
     <t>Subtotal</t>
+  </si>
+  <si>
+    <t>Champion use cases</t>
+  </si>
+  <si>
+    <t>Champion DFD+processes</t>
+  </si>
+  <si>
+    <t>Champion scenarios</t>
+  </si>
+  <si>
+    <t>Champion acceptance tests</t>
+  </si>
+  <si>
+    <t>Champion timeline+charts</t>
+  </si>
+  <si>
+    <t>SA Presentation Class Diagram</t>
+  </si>
+  <si>
+    <t>SA Presentaion Sequence Diagram</t>
+  </si>
+  <si>
+    <t>RFP Constraints</t>
+  </si>
+  <si>
+    <t>RFP Schedule</t>
+  </si>
+  <si>
+    <t>SA Presentation Storyboard</t>
+  </si>
+  <si>
+    <t>SA Presentation Subsystem</t>
+  </si>
+  <si>
+    <t>RFP - Known interactions/ Glossary</t>
+  </si>
+  <si>
+    <t>Data flow diagram</t>
+  </si>
+  <si>
+    <t>Champion document</t>
+  </si>
+  <si>
+    <t>RFP - project objectives</t>
+  </si>
+  <si>
+    <t>SA presentation</t>
+  </si>
+  <si>
+    <t>Storyboard</t>
+  </si>
+  <si>
+    <t>Use Cases-Individual and Global</t>
+  </si>
+  <si>
+    <t>DFDs-Individual and Global</t>
+  </si>
+  <si>
+    <t>StoryBoard</t>
+  </si>
+  <si>
+    <t>RFP-Problem Description/Editing</t>
+  </si>
+  <si>
+    <t>Champion Document</t>
+  </si>
+  <si>
+    <t>Pert and Gantt Chart</t>
+  </si>
+  <si>
+    <t>RFP-4.0</t>
+  </si>
+  <si>
+    <t>Diagram Level 1</t>
   </si>
 </sst>
 </file>
@@ -304,7 +433,7 @@
     <numFmt numFmtId="165" formatCode="m, d"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -333,10 +462,20 @@
       <name val="Noto Sans Symbols"/>
     </font>
     <font>
+      <sz val="11.0"/>
+      <color rgb="FFF3F3F3"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <b/>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -344,7 +483,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -403,6 +542,24 @@
       <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6D9EEB"/>
+        <bgColor rgb="FF6D9EEB"/>
       </patternFill>
     </fill>
   </fills>
@@ -619,7 +776,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="94">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -714,7 +871,7 @@
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -740,55 +897,48 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="23" fillId="10" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="24" fillId="10" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="23" fillId="10" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="24" fillId="10" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="10" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="5" fillId="10" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="25" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="10" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="10" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="6" fillId="10" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="14" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="5" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="5" fillId="10" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="12" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="13" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="14" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="25" fillId="10" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="25" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="25" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="11" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="25" fillId="10" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -797,15 +947,60 @@
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="26" fillId="10" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="17" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="10" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="10" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="8" fillId="10" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="9" fillId="10" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF63D297"/>
+          <bgColor rgb="FF63D297"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE7F9EF"/>
+          <bgColor rgb="FFE7F9EF"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1">
+    <tableStyle count="3" pivot="0" name="SA-style">
+      <tableStyleElement dxfId="1" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    </tableStyle>
+  </tableStyles>
 </styleSheet>
 </file>
 
@@ -823,6 +1018,20 @@
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A12:A23" displayName="Table_1" id="1">
+  <tableColumns count="1">
+    <tableColumn name="Column1" id="1"/>
+  </tableColumns>
+  <tableStyleInfo name="SA-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" headerRowCount="1"/>
+    </ext>
+  </extLst>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1116,15 +1325,15 @@
       </c>
       <c r="C4" s="13">
         <f t="shared" ref="C4:D4" si="1">(G4+K4 +O4)</f>
-        <v>6800</v>
+        <v>8300</v>
       </c>
       <c r="D4" s="14">
         <f t="shared" si="1"/>
-        <v>950</v>
+        <v>3850</v>
       </c>
       <c r="E4" s="15">
         <f t="shared" ref="E4:E9" si="3">(C4-D4)</f>
-        <v>5850</v>
+        <v>4450</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="16">
@@ -1140,27 +1349,27 @@
         <v>4600</v>
       </c>
       <c r="K4" s="19">
-        <v>1000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="L4" s="14">
         <f>Meetings!B4*100</f>
-        <v>350</v>
+        <v>850</v>
       </c>
       <c r="M4" s="15">
         <f t="shared" ref="M4:M9" si="5">(K4-L4)</f>
-        <v>650</v>
+        <v>1150</v>
       </c>
       <c r="O4" s="13">
-        <f>(SA!C13)*100</f>
-        <v>600</v>
+        <f>(SA!C10)*100</f>
+        <v>1100</v>
       </c>
       <c r="P4" s="14">
-        <f>(SA!D13)*100</f>
-        <v>0</v>
+        <f>(SA!D10)*100</f>
+        <v>2400</v>
       </c>
       <c r="Q4" s="15">
         <f t="shared" ref="Q4:Q9" si="6">(O4-P4)</f>
-        <v>600</v>
+        <v>-1300</v>
       </c>
     </row>
     <row r="5">
@@ -1169,15 +1378,15 @@
       </c>
       <c r="C5" s="16">
         <f t="shared" ref="C5:D5" si="2">(G5+K5 +O5)</f>
-        <v>9600</v>
+        <v>8200</v>
       </c>
       <c r="D5" s="17">
         <f t="shared" si="2"/>
-        <v>1850</v>
+        <v>4150</v>
       </c>
       <c r="E5" s="18">
         <f t="shared" si="3"/>
-        <v>7750</v>
+        <v>4050</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="16">
@@ -1193,27 +1402,27 @@
         <v>3600</v>
       </c>
       <c r="K5" s="21">
-        <v>1000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="L5" s="17">
         <f>Meetings!B5*100</f>
-        <v>450</v>
+        <v>850</v>
       </c>
       <c r="M5" s="18">
         <f t="shared" si="5"/>
-        <v>550</v>
+        <v>1150</v>
       </c>
       <c r="O5" s="16">
-        <f>(SA!C24)*100</f>
-        <v>4300</v>
+        <f>(SA!C23)*100</f>
+        <v>1900</v>
       </c>
       <c r="P5" s="17">
-        <f>(SA!D24)*100</f>
-        <v>700</v>
+        <f>(SA!D23)*100</f>
+        <v>2600</v>
       </c>
       <c r="Q5" s="18">
         <f t="shared" si="6"/>
-        <v>3600</v>
+        <v>-700</v>
       </c>
     </row>
     <row r="6">
@@ -1222,15 +1431,15 @@
       </c>
       <c r="C6" s="16">
         <f t="shared" ref="C6:D6" si="7">(G6+K6 +O6)</f>
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="D6" s="17">
         <f t="shared" si="7"/>
-        <v>250</v>
+        <v>1050</v>
       </c>
       <c r="E6" s="18">
         <f t="shared" si="3"/>
-        <v>8750</v>
+        <v>5450</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="16">
@@ -1246,7 +1455,7 @@
         <v>4000</v>
       </c>
       <c r="K6" s="21">
-        <v>1000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="L6" s="17">
         <f>Meetings!B6*100</f>
@@ -1254,19 +1463,19 @@
       </c>
       <c r="M6" s="18">
         <f t="shared" si="5"/>
-        <v>750</v>
+        <v>1750</v>
       </c>
       <c r="O6" s="16">
-        <f>(SA!C30)*100</f>
-        <v>4000</v>
+        <f>(SA!C32)*100</f>
+        <v>500</v>
       </c>
       <c r="P6" s="17">
-        <f>(SA!D30)*100</f>
-        <v>0</v>
+        <f>(SA!D32)*100</f>
+        <v>800</v>
       </c>
       <c r="Q6" s="18">
         <f t="shared" si="6"/>
-        <v>4000</v>
+        <v>-300</v>
       </c>
     </row>
     <row r="7">
@@ -1275,15 +1484,15 @@
       </c>
       <c r="C7" s="16">
         <f t="shared" ref="C7:D7" si="8">(G7+K7 +O7)</f>
-        <v>6900</v>
+        <v>5600</v>
       </c>
       <c r="D7" s="17">
         <f t="shared" si="8"/>
-        <v>450</v>
+        <v>3550</v>
       </c>
       <c r="E7" s="18">
         <f t="shared" si="3"/>
-        <v>6450</v>
+        <v>2050</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="16">
@@ -1292,34 +1501,34 @@
       </c>
       <c r="H7" s="17">
         <f>(Gantt!$C43)*100</f>
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="I7" s="18">
         <f t="shared" si="4"/>
-        <v>2500</v>
-      </c>
-      <c r="K7" s="16">
-        <v>1000.0</v>
+        <v>1800</v>
+      </c>
+      <c r="K7" s="21">
+        <v>2000.0</v>
       </c>
       <c r="L7" s="17">
         <f>Meetings!B7*100</f>
-        <v>450</v>
+        <v>850</v>
       </c>
       <c r="M7" s="18">
         <f t="shared" si="5"/>
-        <v>550</v>
+        <v>1150</v>
       </c>
       <c r="O7" s="16">
-        <f>(SA!C40)*100</f>
-        <v>3400</v>
+        <f>(SA!C42)*100</f>
+        <v>1100</v>
       </c>
       <c r="P7" s="17">
-        <f>(SA!D40)*100</f>
-        <v>0</v>
+        <f>(SA!D42)*100</f>
+        <v>2000</v>
       </c>
       <c r="Q7" s="18">
         <f t="shared" si="6"/>
-        <v>3400</v>
+        <v>-900</v>
       </c>
     </row>
     <row r="8">
@@ -1328,51 +1537,51 @@
       </c>
       <c r="C8" s="16">
         <f t="shared" ref="C8:D8" si="9">(G8+K8 +O8)</f>
-        <v>14300</v>
+        <v>9900</v>
       </c>
       <c r="D8" s="17">
         <f t="shared" si="9"/>
-        <v>700</v>
+        <v>3925</v>
       </c>
       <c r="E8" s="18">
         <f t="shared" si="3"/>
-        <v>13600</v>
+        <v>5975</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="16">
         <f>(Gantt!$B56)*100</f>
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="H8" s="17">
         <f>(Gantt!$C56)*100</f>
-        <v>125</v>
+        <v>375</v>
       </c>
       <c r="I8" s="18">
         <f t="shared" si="4"/>
-        <v>6475</v>
-      </c>
-      <c r="K8" s="16">
-        <v>1000.0</v>
+        <v>6325</v>
+      </c>
+      <c r="K8" s="21">
+        <v>2000.0</v>
       </c>
       <c r="L8" s="17">
         <f>Meetings!B8*100</f>
-        <v>450</v>
+        <v>850</v>
       </c>
       <c r="M8" s="18">
         <f t="shared" si="5"/>
-        <v>550</v>
+        <v>1150</v>
       </c>
       <c r="O8" s="16">
         <f>(SA!C53)*100</f>
-        <v>6700</v>
+        <v>1200</v>
       </c>
       <c r="P8" s="17">
         <f>(SA!D53)*100</f>
-        <v>125</v>
+        <v>2700</v>
       </c>
       <c r="Q8" s="18">
         <f t="shared" si="6"/>
-        <v>6575</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="9">
@@ -1381,15 +1590,15 @@
       </c>
       <c r="C9" s="23">
         <f t="shared" ref="C9:D9" si="10">(G9+K9 +O9)</f>
-        <v>6100</v>
+        <v>5800</v>
       </c>
       <c r="D9" s="24">
         <f t="shared" si="10"/>
-        <v>450</v>
+        <v>1850</v>
       </c>
       <c r="E9" s="25">
         <f t="shared" si="3"/>
-        <v>5650</v>
+        <v>3950</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="16">
@@ -1404,8 +1613,8 @@
         <f t="shared" si="4"/>
         <v>2800</v>
       </c>
-      <c r="K9" s="16">
-        <v>1000.0</v>
+      <c r="K9" s="21">
+        <v>2000.0</v>
       </c>
       <c r="L9" s="17">
         <f>Meetings!B9*100</f>
@@ -1413,19 +1622,19 @@
       </c>
       <c r="M9" s="18">
         <f t="shared" si="5"/>
-        <v>650</v>
+        <v>1650</v>
       </c>
       <c r="O9" s="23">
-        <f>(SA!C61)*100</f>
-        <v>2200</v>
+        <f>(SA!C63)*100</f>
+        <v>900</v>
       </c>
       <c r="P9" s="24">
-        <f>(SA!D61)*100</f>
-        <v>0</v>
+        <f>(SA!D63)*100</f>
+        <v>1400</v>
       </c>
       <c r="Q9" s="25">
         <f t="shared" si="6"/>
-        <v>2200</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="10">
@@ -1434,52 +1643,52 @@
       </c>
       <c r="C10" s="27">
         <f t="shared" ref="C10:E10" si="11">SUM(C4:C9)</f>
-        <v>52700</v>
+        <v>44300</v>
       </c>
       <c r="D10" s="28">
         <f t="shared" si="11"/>
-        <v>4650</v>
+        <v>18375</v>
       </c>
       <c r="E10" s="29">
         <f t="shared" si="11"/>
-        <v>48050</v>
+        <v>25925</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="30">
         <f t="shared" ref="G10:I10" si="12">SUM(G4:G9)</f>
-        <v>25500</v>
+        <v>25600</v>
       </c>
       <c r="H10" s="31">
         <f t="shared" si="12"/>
-        <v>1525</v>
+        <v>2475</v>
       </c>
       <c r="I10" s="32">
         <f t="shared" si="12"/>
-        <v>23975</v>
+        <v>23125</v>
       </c>
       <c r="K10" s="30">
         <f t="shared" ref="K10:M10" si="13">SUM(K4:K9)</f>
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L10" s="31">
         <f t="shared" si="13"/>
-        <v>2300</v>
+        <v>4000</v>
       </c>
       <c r="M10" s="32">
         <f t="shared" si="13"/>
-        <v>3700</v>
+        <v>8000</v>
       </c>
       <c r="O10" s="27">
         <f t="shared" ref="O10:Q10" si="14">SUM(O4:O9)</f>
-        <v>21200</v>
+        <v>6700</v>
       </c>
       <c r="P10" s="28">
         <f t="shared" si="14"/>
-        <v>825</v>
+        <v>11900</v>
       </c>
       <c r="Q10" s="29">
         <f t="shared" si="14"/>
-        <v>20375</v>
+        <v>-5200</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1"/>
@@ -3423,9 +3632,9 @@
         <v>1.0</v>
       </c>
       <c r="C35" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="E35" s="50"/>
+        <v>2.0</v>
+      </c>
+      <c r="E35" s="45"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="38" t="s">
@@ -3435,7 +3644,7 @@
         <v>2.0</v>
       </c>
       <c r="C36" s="38">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F36" s="54">
         <v>1.0</v>
@@ -3450,13 +3659,13 @@
         <v>5.0</v>
       </c>
       <c r="C37" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="H37" s="55">
+        <v>3.0</v>
+      </c>
+      <c r="H37" s="54">
         <v>2.0</v>
       </c>
-      <c r="I37" s="46"/>
-      <c r="J37" s="46"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="45"/>
       <c r="K37" s="46"/>
       <c r="L37" s="46"/>
     </row>
@@ -3498,7 +3707,7 @@
         <v>6.0</v>
       </c>
       <c r="C40" s="38">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S40" s="55">
         <v>5.0</v>
@@ -3516,7 +3725,9 @@
       <c r="B41" s="38">
         <v>4.0</v>
       </c>
-      <c r="C41" s="38"/>
+      <c r="C41" s="38">
+        <v>0.0</v>
+      </c>
       <c r="Y41" s="55">
         <v>6.0</v>
       </c>
@@ -3548,7 +3759,7 @@
       </c>
       <c r="C43" s="33">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -3557,8 +3768,8 @@
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="41">
-        <v>1.0</v>
+      <c r="A45" s="41" t="s">
+        <v>55</v>
       </c>
       <c r="B45" s="38">
         <v>3.0</v>
@@ -3627,21 +3838,19 @@
       <c r="BK45" s="42"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="41">
-        <v>2.0</v>
+      <c r="A46" s="41" t="s">
+        <v>56</v>
       </c>
       <c r="B46" s="38">
         <v>1.0</v>
       </c>
       <c r="C46" s="38">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="E46" s="42"/>
       <c r="F46" s="42"/>
       <c r="G46" s="42"/>
-      <c r="H46" s="57">
-        <v>1.0</v>
-      </c>
+      <c r="H46" s="57"/>
       <c r="I46" s="37"/>
       <c r="J46" s="37"/>
       <c r="K46" s="37"/>
@@ -3699,14 +3908,14 @@
       <c r="BK46" s="42"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="41">
-        <v>3.0</v>
+      <c r="A47" s="41" t="s">
+        <v>57</v>
       </c>
       <c r="B47" s="38">
         <v>1.0</v>
       </c>
       <c r="C47" s="38">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E47" s="42"/>
       <c r="F47" s="42"/>
@@ -3771,8 +3980,8 @@
       <c r="BK47" s="42"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="41">
-        <v>4.0</v>
+      <c r="A48" s="41" t="s">
+        <v>58</v>
       </c>
       <c r="B48" s="38">
         <v>20.0</v>
@@ -3783,9 +3992,7 @@
       <c r="E48" s="42"/>
       <c r="F48" s="42"/>
       <c r="G48" s="42"/>
-      <c r="H48" s="57">
-        <v>1.0</v>
-      </c>
+      <c r="H48" s="57"/>
       <c r="I48" s="44"/>
       <c r="J48" s="44"/>
       <c r="K48" s="44"/>
@@ -3843,8 +4050,8 @@
       <c r="BK48" s="42"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="41">
-        <v>5.0</v>
+      <c r="A49" s="41" t="s">
+        <v>59</v>
       </c>
       <c r="B49" s="38">
         <v>6.0</v>
@@ -3915,8 +4122,8 @@
       <c r="BK49" s="42"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="41">
-        <v>6.0</v>
+      <c r="A50" s="41" t="s">
+        <v>60</v>
       </c>
       <c r="B50" s="38">
         <v>5.0</v>
@@ -3987,8 +4194,8 @@
       <c r="BK50" s="42"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="41">
-        <v>7.0</v>
+      <c r="A51" s="41" t="s">
+        <v>61</v>
       </c>
       <c r="B51" s="38">
         <v>10.0</v>
@@ -4059,8 +4266,8 @@
       <c r="BK51" s="42"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="41">
-        <v>8.0</v>
+      <c r="A52" s="41" t="s">
+        <v>62</v>
       </c>
       <c r="B52" s="38">
         <v>3.0</v>
@@ -4107,7 +4314,7 @@
       <c r="AO52" s="42"/>
       <c r="AP52" s="42"/>
       <c r="AQ52" s="36" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="AR52" s="36"/>
       <c r="AS52" s="36"/>
@@ -4131,8 +4338,8 @@
       <c r="BK52" s="42"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="41">
-        <v>9.0</v>
+      <c r="A53" s="41" t="s">
+        <v>64</v>
       </c>
       <c r="B53" s="38">
         <v>10.0</v>
@@ -4203,8 +4410,8 @@
       <c r="BK53" s="42"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="41">
-        <v>10.0</v>
+      <c r="A54" s="41" t="s">
+        <v>65</v>
       </c>
       <c r="B54" s="38">
         <v>2.0</v>
@@ -4275,8 +4482,8 @@
       <c r="BK54" s="42"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="41">
-        <v>11.0</v>
+      <c r="A55" s="41" t="s">
+        <v>53</v>
       </c>
       <c r="B55" s="38">
         <v>6.0</v>
@@ -4351,12 +4558,12 @@
         <v>31</v>
       </c>
       <c r="B56" s="33">
-        <f>SUM(A45:A55)</f>
-        <v>66</v>
+        <f t="shared" ref="B56:C56" si="5">SUM(B45:B55)</f>
+        <v>67</v>
       </c>
       <c r="C56" s="33">
-        <f>SUM(C45:C55)</f>
-        <v>1.25</v>
+        <f t="shared" si="5"/>
+        <v>3.75</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
@@ -4366,7 +4573,7 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="38" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B58" s="38">
         <v>3.0</v>
@@ -4380,7 +4587,7 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="38" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B59" s="38">
         <v>4.0</v>
@@ -4397,7 +4604,7 @@
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="38" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B60" s="38">
         <v>6.0</v>
@@ -4416,7 +4623,7 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="38" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B61" s="38">
         <v>6.0</v>
@@ -4435,7 +4642,7 @@
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="38" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B62" s="38">
         <v>4.0</v>
@@ -4452,7 +4659,7 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="38" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B63" s="38">
         <v>6.0</v>
@@ -4475,38 +4682,38 @@
         <v>31</v>
       </c>
       <c r="B64" s="33">
-        <f t="shared" ref="B64:C64" si="5">SUM(B58:B63)</f>
+        <f t="shared" ref="B64:C64" si="6">SUM(B58:B63)</f>
         <v>29</v>
       </c>
       <c r="C64" s="38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="33" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B65" s="33">
         <f>SUM(B56,B64,B33,B43,B24,B13)</f>
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C65" s="33">
         <f>SUM(C56,C64,C13,C24,C33,C43)</f>
-        <v>15.25</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="33" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B66" s="58">
-        <f t="shared" ref="B66:C66" si="6">B65*100</f>
-        <v>25500</v>
+        <f t="shared" ref="B66:C66" si="7">B65*100</f>
+        <v>25600</v>
       </c>
       <c r="C66" s="58">
-        <f t="shared" si="6"/>
-        <v>1525</v>
+        <f t="shared" si="7"/>
+        <v>2475</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1"/>
@@ -5494,89 +5701,89 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="6" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D1" s="59" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="E1" s="59" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F1" s="59" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" ht="62.25" customHeight="1">
       <c r="B2" s="6" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C2" s="60" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D2" s="61" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E2" s="61" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F2" s="61" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G2" s="60" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H2" s="60" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="I2" s="60" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="J2" s="60" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="K2" s="60" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="L2" s="60" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="M2" s="60" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="N2" s="60" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="6" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="C3" s="59">
         <v>1.0</v>
@@ -5588,7 +5795,7 @@
         <v>0.5</v>
       </c>
       <c r="F3" s="59">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="G3" s="59">
         <v>0.0</v>
@@ -5621,7 +5828,7 @@
       </c>
       <c r="B4" s="6">
         <f t="shared" ref="B4:B9" si="1">SUM(C4:N4)</f>
-        <v>3.5</v>
+        <v>8.5</v>
       </c>
       <c r="C4" s="62">
         <v>1.0</v>
@@ -5633,7 +5840,7 @@
         <v>0.5</v>
       </c>
       <c r="F4" s="62">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="G4" s="62">
         <v>0.0</v>
@@ -5666,7 +5873,7 @@
       </c>
       <c r="B5" s="6">
         <f t="shared" si="1"/>
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
       <c r="C5" s="62">
         <v>1.0</v>
@@ -5678,7 +5885,7 @@
         <v>0.5</v>
       </c>
       <c r="F5" s="62">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="G5" s="62">
         <v>0.0</v>
@@ -5756,7 +5963,7 @@
       </c>
       <c r="B7" s="6">
         <f t="shared" si="1"/>
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
       <c r="C7" s="62">
         <v>1.0</v>
@@ -5768,7 +5975,7 @@
         <v>0.5</v>
       </c>
       <c r="F7" s="62">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="G7" s="62">
         <v>0.0</v>
@@ -5801,7 +6008,7 @@
       </c>
       <c r="B8" s="6">
         <f t="shared" si="1"/>
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
       <c r="C8" s="62">
         <v>1.0</v>
@@ -5813,7 +6020,7 @@
         <v>0.5</v>
       </c>
       <c r="F8" s="62">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="G8" s="62">
         <v>0.0</v>
@@ -5891,7 +6098,7 @@
       </c>
       <c r="B10" s="6">
         <f t="shared" ref="B10:N10" si="2">SUM(B4:B9)</f>
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C10" s="6">
         <f t="shared" si="2"/>
@@ -5907,7 +6114,7 @@
       </c>
       <c r="F10" s="6">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="G10" s="6">
         <f t="shared" si="2"/>
@@ -6950,7 +7157,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="15.0"/>
-    <col customWidth="1" min="2" max="2" width="29.71"/>
+    <col customWidth="1" min="2" max="2" width="30.86"/>
     <col customWidth="1" min="3" max="3" width="14.57"/>
     <col customWidth="1" min="4" max="4" width="10.57"/>
     <col customWidth="1" min="5" max="19" width="3.71"/>
@@ -6971,15 +7178,17 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="64"/>
+      <c r="A1" s="64" t="s">
+        <v>99</v>
+      </c>
       <c r="B1" s="65" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="C1" s="65" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="D1" s="66" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="E1" s="33">
         <v>1.0</v>
@@ -7110,1743 +7319,893 @@
       <c r="D2" s="69"/>
     </row>
     <row r="3">
-      <c r="A3" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="70">
+      <c r="B3" s="70" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="38">
+        <v>2.0</v>
+      </c>
+      <c r="D3" s="38">
+        <v>3.0</v>
+      </c>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="64"/>
+      <c r="B4" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="38">
         <v>1.0</v>
       </c>
-      <c r="C3" s="38">
+      <c r="D4" s="38">
+        <v>1.0</v>
+      </c>
+      <c r="H4" s="71"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="64"/>
+      <c r="B5" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="38">
+        <v>1.0</v>
+      </c>
+      <c r="D5" s="38">
         <v>3.0</v>
       </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="42"/>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="42"/>
-      <c r="AC3" s="42"/>
-      <c r="AD3" s="42"/>
-      <c r="AE3" s="42"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="70">
-        <v>20.0</v>
-      </c>
-      <c r="C4" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="E4" s="42"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="70">
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="64"/>
+      <c r="B6" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="38">
+        <v>1.0</v>
+      </c>
+      <c r="D6" s="38">
         <v>3.0</v>
       </c>
-      <c r="C5" s="38">
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="64"/>
+      <c r="B7" s="70" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="38">
+        <v>2.0</v>
+      </c>
+      <c r="D7" s="38">
+        <v>5.0</v>
+      </c>
+      <c r="O7" s="71"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="71"/>
+      <c r="R7" s="71"/>
+      <c r="S7" s="71"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="64"/>
+      <c r="B8" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="38">
+        <v>2.0</v>
+      </c>
+      <c r="D8" s="38">
+        <v>5.0</v>
+      </c>
+      <c r="T8" s="71"/>
+      <c r="U8" s="71"/>
+      <c r="V8" s="71"/>
+      <c r="W8" s="71"/>
+      <c r="X8" s="71"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="64"/>
+      <c r="B9" s="72" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="38">
+        <v>2.0</v>
+      </c>
+      <c r="D9" s="38">
+        <v>4.0</v>
+      </c>
+      <c r="Y9" s="71"/>
+      <c r="Z9" s="71"/>
+      <c r="AA9" s="71"/>
+      <c r="AB9" s="71"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="64"/>
+      <c r="B10" s="73" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="68">
+        <f t="shared" ref="C10:D10" si="1">SUM(C3:C9)</f>
+        <v>11</v>
+      </c>
+      <c r="D10" s="74">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="68"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="75"/>
+      <c r="B12" s="76" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="69">
+        <v>2.0</v>
+      </c>
+      <c r="D12" s="69">
+        <v>2.0</v>
+      </c>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="75"/>
+      <c r="B13" s="76" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="69">
+        <v>2.0</v>
+      </c>
+      <c r="D13" s="69">
         <v>3.0</v>
       </c>
-      <c r="E5" s="42"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="37"/>
-      <c r="S5" s="37"/>
-      <c r="T5" s="37"/>
-      <c r="U5" s="37"/>
-      <c r="V5" s="37"/>
-      <c r="W5" s="37"/>
-      <c r="X5" s="37"/>
-      <c r="Y5" s="37"/>
-      <c r="Z5" s="42"/>
-      <c r="AA5" s="42"/>
-      <c r="AB5" s="42"/>
-      <c r="AC5" s="42"/>
-      <c r="AD5" s="42"/>
-      <c r="AE5" s="42"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="70">
-        <v>5.0</v>
-      </c>
-      <c r="C6" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="37"/>
-      <c r="U6" s="37"/>
-      <c r="V6" s="37"/>
-      <c r="W6" s="37"/>
-      <c r="X6" s="37"/>
-      <c r="Y6" s="37"/>
-      <c r="Z6" s="42"/>
-      <c r="AA6" s="42"/>
-      <c r="AB6" s="42"/>
-      <c r="AC6" s="42"/>
-      <c r="AD6" s="42"/>
-      <c r="AE6" s="42"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="70">
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="75"/>
+      <c r="B14" s="76" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="69">
+        <v>1.0</v>
+      </c>
+      <c r="D14" s="69">
+        <v>2.0</v>
+      </c>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="75"/>
+      <c r="B15" s="78" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="69">
+        <v>2.0</v>
+      </c>
+      <c r="D15" s="69">
+        <v>2.0</v>
+      </c>
+      <c r="L15" s="71"/>
+      <c r="M15" s="71"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="75"/>
+      <c r="B16" s="76" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" s="69">
+        <v>2.0</v>
+      </c>
+      <c r="D16" s="69">
+        <v>2.0</v>
+      </c>
+      <c r="N16" s="71"/>
+      <c r="O16" s="71"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="75"/>
+      <c r="B17" s="76" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="69">
+        <v>2.0</v>
+      </c>
+      <c r="D17" s="69">
+        <v>4.0</v>
+      </c>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="77"/>
+      <c r="P17" s="71"/>
+      <c r="Q17" s="71"/>
+      <c r="R17" s="71"/>
+      <c r="S17" s="71"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="75"/>
+      <c r="B18" s="76" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="69">
+        <v>1.0</v>
+      </c>
+      <c r="D18" s="69">
+        <v>1.0</v>
+      </c>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="77"/>
+      <c r="T18" s="71"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="75"/>
+      <c r="B19" s="76" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" s="69">
+        <v>2.0</v>
+      </c>
+      <c r="D19" s="69">
+        <v>1.0</v>
+      </c>
+      <c r="U19" s="71"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="75"/>
+      <c r="B20" s="76" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" s="69">
+        <v>1.0</v>
+      </c>
+      <c r="D20" s="69">
+        <v>1.0</v>
+      </c>
+      <c r="V20" s="71"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="75"/>
+      <c r="B21" s="76" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="69">
         <v>3.0</v>
       </c>
-      <c r="C7" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="42"/>
-      <c r="T7" s="42"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="42"/>
-      <c r="W7" s="42"/>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="42"/>
-      <c r="Z7" s="43"/>
-      <c r="AA7" s="43"/>
-      <c r="AB7" s="43"/>
-      <c r="AC7" s="42"/>
-      <c r="AD7" s="42"/>
-      <c r="AE7" s="42"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="40" t="s">
+      <c r="D21" s="69">
+        <v>6.0</v>
+      </c>
+      <c r="W21" s="71"/>
+      <c r="X21" s="71"/>
+      <c r="Y21" s="71"/>
+      <c r="Z21" s="71"/>
+      <c r="AA21" s="71"/>
+      <c r="AB21" s="71"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="75"/>
+      <c r="B22" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="69">
+        <v>1.0</v>
+      </c>
+      <c r="D22" s="69">
+        <v>2.0</v>
+      </c>
+      <c r="AC22" s="71"/>
+      <c r="AD22" s="71"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="75" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="73" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="68">
+        <f t="shared" ref="C23:D23" si="2">SUM(C12:C22)</f>
+        <v>19</v>
+      </c>
+      <c r="D23" s="74">
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="B8" s="70">
+    </row>
+    <row r="24">
+      <c r="A24" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="68"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="79"/>
+      <c r="B25" s="70" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="69">
         <v>2.0</v>
       </c>
-      <c r="C8" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="E8" s="42"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="37"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="37"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="37"/>
-      <c r="AA8" s="37"/>
-      <c r="AB8" s="37"/>
-      <c r="AC8" s="42"/>
-      <c r="AD8" s="42"/>
-      <c r="AE8" s="42"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="70">
-        <v>4.0</v>
-      </c>
-      <c r="C9" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="37"/>
-      <c r="U9" s="37"/>
-      <c r="V9" s="37"/>
-      <c r="W9" s="37"/>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="37"/>
-      <c r="AA9" s="37"/>
-      <c r="AB9" s="37"/>
-      <c r="AC9" s="42"/>
-      <c r="AD9" s="42"/>
-      <c r="AE9" s="42"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="70">
+      <c r="D25" s="69">
+        <v>2.0</v>
+      </c>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="79"/>
+      <c r="B26" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="69">
+        <v>1.0</v>
+      </c>
+      <c r="D26" s="69">
+        <v>2.0</v>
+      </c>
+      <c r="G26" s="80"/>
+      <c r="H26" s="80"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="79"/>
+      <c r="B27" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="69">
+        <v>1.0</v>
+      </c>
+      <c r="D27" s="69">
+        <v>3.0</v>
+      </c>
+      <c r="I27" s="80"/>
+      <c r="J27" s="80"/>
+      <c r="K27" s="80"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="79"/>
+      <c r="B28" s="70" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="69">
+        <v>1.0</v>
+      </c>
+      <c r="D28" s="69">
+        <v>1.0</v>
+      </c>
+      <c r="L28" s="80"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="79"/>
+      <c r="B29" s="76" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="69">
+        <v>1.0</v>
+      </c>
+      <c r="D29" s="69">
+        <v>2.0</v>
+      </c>
+      <c r="M29" s="80"/>
+      <c r="N29" s="80"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="79"/>
+      <c r="B30" s="76" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="69">
+        <v>2.0</v>
+      </c>
+      <c r="D30" s="69">
         <v>6.0</v>
       </c>
-      <c r="C10" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="37"/>
-      <c r="U10" s="37"/>
-      <c r="V10" s="37"/>
-      <c r="W10" s="37"/>
-      <c r="X10" s="37"/>
-      <c r="Y10" s="37"/>
-      <c r="Z10" s="37"/>
-      <c r="AA10" s="37"/>
-      <c r="AB10" s="37"/>
-      <c r="AC10" s="42"/>
-      <c r="AD10" s="42"/>
-      <c r="AE10" s="42"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="70">
-        <v>5.0</v>
-      </c>
-      <c r="C11" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="37"/>
-      <c r="T11" s="37"/>
-      <c r="U11" s="37"/>
-      <c r="V11" s="37"/>
-      <c r="W11" s="37"/>
-      <c r="X11" s="37"/>
-      <c r="Y11" s="37"/>
-      <c r="Z11" s="37"/>
-      <c r="AA11" s="37"/>
-      <c r="AB11" s="37"/>
-      <c r="AC11" s="42"/>
-      <c r="AD11" s="42"/>
-      <c r="AE11" s="42"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="70">
-        <v>3.0</v>
-      </c>
-      <c r="C12" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="42"/>
-      <c r="S12" s="42"/>
-      <c r="T12" s="42"/>
-      <c r="U12" s="42"/>
-      <c r="V12" s="42"/>
-      <c r="W12" s="42"/>
-      <c r="X12" s="42"/>
-      <c r="Y12" s="42"/>
-      <c r="Z12" s="42"/>
-      <c r="AA12" s="42"/>
-      <c r="AB12" s="42"/>
-      <c r="AC12" s="43"/>
-      <c r="AD12" s="43"/>
-      <c r="AE12" s="43"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="71"/>
-      <c r="B13" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" s="68">
-        <f t="shared" ref="C13:D13" si="1">SUM(C3:C12)</f>
-        <v>6</v>
-      </c>
-      <c r="D13" s="73">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="67" t="s">
+      <c r="O30" s="80"/>
+      <c r="P30" s="80"/>
+      <c r="Q30" s="80"/>
+      <c r="R30" s="80"/>
+      <c r="S30" s="80"/>
+      <c r="T30" s="80"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="79"/>
+      <c r="B31" s="72" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="69">
+        <v>1.0</v>
+      </c>
+      <c r="D31" s="69">
+        <v>1.0</v>
+      </c>
+      <c r="T31" s="52"/>
+      <c r="U31" s="80"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="79"/>
+      <c r="B32" s="73" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="68">
+        <f t="shared" ref="C32:D32" si="3">SUM(C25:C28)</f>
+        <v>5</v>
+      </c>
+      <c r="D32" s="74">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="B14" s="68"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="71"/>
-      <c r="B15" s="74" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="38">
-        <v>4.0</v>
-      </c>
-      <c r="D15" s="38">
-        <v>4.0</v>
-      </c>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="71"/>
-      <c r="B16" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="38">
+    </row>
+    <row r="33">
+      <c r="A33" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="68"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="69"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="79"/>
+      <c r="B34" s="76" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="69">
+        <v>1.0</v>
+      </c>
+      <c r="D34" s="69">
         <v>2.0</v>
       </c>
-      <c r="D16" s="38">
-        <v>1.0</v>
-      </c>
-      <c r="E16" s="45"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="71"/>
-      <c r="B17" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="38">
-        <v>6.0</v>
-      </c>
-      <c r="D17" s="38">
-        <v>1.0</v>
-      </c>
-      <c r="I17" s="48">
-        <v>44563.0</v>
-      </c>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="47"/>
-      <c r="R17" s="47"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="71"/>
-      <c r="B18" s="74" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="38">
-        <v>4.0</v>
-      </c>
-      <c r="D18" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="I18" s="48">
-        <v>44563.0</v>
-      </c>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="71"/>
-      <c r="B19" s="74" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="38">
-        <v>8.0</v>
-      </c>
-      <c r="D19" s="38">
-        <v>1.0</v>
-      </c>
-      <c r="E19" s="45"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="71"/>
-      <c r="B20" s="74" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="38">
-        <v>6.0</v>
-      </c>
-      <c r="D20" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="M20" s="48">
-        <v>44656.0</v>
-      </c>
-      <c r="N20" s="46"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="46"/>
-      <c r="R20" s="46"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="71"/>
-      <c r="B21" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="38">
-        <v>8.0</v>
-      </c>
-      <c r="D21" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="S21" s="48">
-        <v>44626.0</v>
-      </c>
-      <c r="T21" s="46"/>
-      <c r="U21" s="46"/>
-      <c r="V21" s="46"/>
-      <c r="W21" s="46"/>
-      <c r="X21" s="46"/>
-      <c r="Y21" s="46"/>
-      <c r="Z21" s="46"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="71"/>
-      <c r="B22" s="74" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="38">
-        <v>2.0</v>
-      </c>
-      <c r="D22" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="AA22" s="49">
-        <v>7.0</v>
-      </c>
-      <c r="AB22" s="46"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="71"/>
-      <c r="B23" s="74" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="38">
-        <v>3.0</v>
-      </c>
-      <c r="D23" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="AC23" s="49">
-        <v>8.0</v>
-      </c>
-      <c r="AD23" s="46"/>
-      <c r="AE23" s="46"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="71"/>
-      <c r="B24" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="68">
-        <f t="shared" ref="C24:D24" si="2">SUM(C15:C23)</f>
-        <v>43</v>
-      </c>
-      <c r="D24" s="73">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="67" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="71"/>
-      <c r="B26" s="68"/>
-      <c r="C26" s="69">
-        <v>2.0</v>
-      </c>
-      <c r="D26" s="69">
-        <v>0.0</v>
-      </c>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="71"/>
-      <c r="B27" s="75"/>
-      <c r="C27" s="69">
-        <v>20.0</v>
-      </c>
-      <c r="D27" s="69">
-        <v>0.0</v>
-      </c>
-      <c r="G27" s="50"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="46"/>
-      <c r="O27" s="46"/>
-      <c r="P27" s="46"/>
-      <c r="Q27" s="46"/>
-      <c r="R27" s="46"/>
-      <c r="S27" s="46"/>
-      <c r="T27" s="46"/>
-      <c r="U27" s="46"/>
-      <c r="V27" s="46"/>
-      <c r="W27" s="46"/>
-      <c r="X27" s="46"/>
-      <c r="Y27" s="46"/>
-      <c r="Z27" s="46"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="71"/>
-      <c r="B28" s="75"/>
-      <c r="C28" s="69">
-        <v>15.0</v>
-      </c>
-      <c r="D28" s="69">
-        <v>0.0</v>
-      </c>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="46"/>
-      <c r="O28" s="46"/>
-      <c r="P28" s="46"/>
-      <c r="Q28" s="46"/>
-      <c r="R28" s="46"/>
-      <c r="S28" s="46"/>
-      <c r="T28" s="46"/>
-      <c r="U28" s="46"/>
-      <c r="V28" s="46"/>
-      <c r="W28" s="46"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="71"/>
-      <c r="B29" s="75"/>
-      <c r="C29" s="69">
-        <v>3.0</v>
-      </c>
-      <c r="D29" s="69">
-        <v>0.0</v>
-      </c>
-      <c r="X29" s="46"/>
-      <c r="Y29" s="46"/>
-      <c r="Z29" s="46"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="71"/>
-      <c r="B30" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="C30" s="68">
-        <f t="shared" ref="C30:D30" si="3">SUM(C26:C29)</f>
-        <v>40</v>
-      </c>
-      <c r="D30" s="73">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="68"/>
-      <c r="C31" s="69"/>
-      <c r="D31" s="69"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="71"/>
-      <c r="B32" s="74">
-        <v>1.0</v>
-      </c>
-      <c r="C32" s="69">
-        <v>1.0</v>
-      </c>
-      <c r="D32" s="69"/>
-      <c r="E32" s="50"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="71"/>
-      <c r="B33" s="74">
-        <v>2.0</v>
-      </c>
-      <c r="C33" s="69">
-        <v>2.0</v>
-      </c>
-      <c r="D33" s="69"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="50"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="71"/>
-      <c r="B34" s="74">
-        <v>3.0</v>
-      </c>
-      <c r="C34" s="69">
-        <v>5.0</v>
-      </c>
-      <c r="D34" s="69"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="50"/>
-      <c r="K34" s="50"/>
-      <c r="L34" s="50"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
     </row>
     <row r="35">
-      <c r="A35" s="71"/>
-      <c r="B35" s="74">
-        <v>4.0</v>
+      <c r="A35" s="79"/>
+      <c r="B35" s="76" t="s">
+        <v>104</v>
       </c>
       <c r="C35" s="69">
         <v>1.0</v>
       </c>
       <c r="D35" s="69">
-        <v>0.0</v>
-      </c>
-      <c r="M35" s="50"/>
+        <v>2.0</v>
+      </c>
+      <c r="G35" s="71"/>
+      <c r="H35" s="71"/>
     </row>
     <row r="36">
-      <c r="A36" s="71"/>
-      <c r="B36" s="74">
+      <c r="A36" s="79"/>
+      <c r="B36" s="76" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="69">
+        <v>1.0</v>
+      </c>
+      <c r="D36" s="69">
+        <v>2.0</v>
+      </c>
+      <c r="I36" s="71"/>
+      <c r="J36" s="71"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="79"/>
+      <c r="B37" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" s="69">
+        <v>1.0</v>
+      </c>
+      <c r="D37" s="69">
+        <v>1.0</v>
+      </c>
+      <c r="K37" s="71"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="79"/>
+      <c r="B38" s="76" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" s="69">
+        <v>1.0</v>
+      </c>
+      <c r="D38" s="69">
+        <v>3.0</v>
+      </c>
+      <c r="L38" s="71"/>
+      <c r="M38" s="71"/>
+      <c r="N38" s="71"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="79"/>
+      <c r="B39" s="76" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" s="69">
+        <v>1.0</v>
+      </c>
+      <c r="D39" s="69">
+        <v>4.0</v>
+      </c>
+      <c r="O39" s="71"/>
+      <c r="P39" s="71"/>
+      <c r="Q39" s="71"/>
+      <c r="R39" s="71"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="79"/>
+      <c r="B40" s="76" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40" s="69">
+        <v>4.0</v>
+      </c>
+      <c r="D40" s="69">
         <v>5.0</v>
       </c>
-      <c r="C36" s="69">
-        <v>5.0</v>
-      </c>
-      <c r="D36" s="69"/>
-      <c r="N36" s="50"/>
-      <c r="O36" s="50"/>
-      <c r="P36" s="50"/>
-      <c r="Q36" s="50"/>
-      <c r="R36" s="50"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="71"/>
-      <c r="B37" s="74">
-        <v>6.0</v>
-      </c>
-      <c r="C37" s="69">
-        <v>6.0</v>
-      </c>
-      <c r="D37" s="69"/>
-      <c r="S37" s="50"/>
-      <c r="T37" s="50"/>
-      <c r="U37" s="50"/>
-      <c r="V37" s="50"/>
-      <c r="W37" s="50"/>
-      <c r="X37" s="50"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="71"/>
-      <c r="B38" s="74">
-        <v>7.0</v>
-      </c>
-      <c r="C38" s="69">
-        <v>4.0</v>
-      </c>
-      <c r="D38" s="69"/>
-      <c r="Y38" s="50"/>
-      <c r="Z38" s="50"/>
-      <c r="AA38" s="50"/>
-      <c r="AB38" s="50"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="71"/>
-      <c r="B39" s="74">
-        <v>8.0</v>
-      </c>
-      <c r="C39" s="69">
-        <v>10.0</v>
-      </c>
-      <c r="D39" s="69"/>
-      <c r="AC39" s="50"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="71"/>
-      <c r="B40" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="C40" s="68">
-        <f t="shared" ref="C40:D40" si="4">SUM(C31:C39)</f>
-        <v>34</v>
-      </c>
-      <c r="D40" s="73">
+      <c r="S40" s="71"/>
+      <c r="T40" s="71"/>
+      <c r="U40" s="71"/>
+      <c r="V40" s="71"/>
+      <c r="W40" s="71"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="79"/>
+      <c r="B41" s="76" t="s">
+        <v>127</v>
+      </c>
+      <c r="C41" s="69">
+        <v>1.0</v>
+      </c>
+      <c r="D41" s="69">
+        <v>1.0</v>
+      </c>
+      <c r="X41" s="71"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="79"/>
+      <c r="B42" s="73" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="68">
+        <f t="shared" ref="C42:D42" si="4">SUM(C33:C41)</f>
+        <v>11</v>
+      </c>
+      <c r="D42" s="74">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="76" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="77"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="71"/>
-      <c r="B42" s="78">
-        <v>1.0</v>
-      </c>
-      <c r="C42" s="38">
-        <v>3.0</v>
-      </c>
-      <c r="D42" s="38">
-        <v>0.25</v>
-      </c>
-      <c r="E42" s="79"/>
-      <c r="F42" s="79"/>
-      <c r="G42" s="79"/>
-      <c r="H42" s="80"/>
-      <c r="I42" s="80"/>
-      <c r="J42" s="80"/>
-      <c r="K42" s="80"/>
-      <c r="L42" s="80"/>
-      <c r="M42" s="80"/>
-      <c r="N42" s="80"/>
-      <c r="O42" s="80"/>
-      <c r="P42" s="80"/>
-      <c r="Q42" s="80"/>
-      <c r="R42" s="80"/>
-      <c r="S42" s="80"/>
-      <c r="T42" s="80"/>
-      <c r="U42" s="80"/>
-      <c r="V42" s="80"/>
-      <c r="W42" s="80"/>
-      <c r="X42" s="80"/>
-      <c r="Y42" s="80"/>
-      <c r="Z42" s="80"/>
-      <c r="AA42" s="80"/>
-      <c r="AB42" s="80"/>
-      <c r="AC42" s="80"/>
-      <c r="AD42" s="80"/>
-      <c r="AE42" s="80"/>
-      <c r="AF42" s="80"/>
-      <c r="AG42" s="80"/>
-      <c r="AH42" s="80"/>
-      <c r="AI42" s="80"/>
-      <c r="AJ42" s="80"/>
-      <c r="AK42" s="80"/>
-      <c r="AL42" s="80"/>
-      <c r="AM42" s="80"/>
-      <c r="AN42" s="80"/>
-      <c r="AO42" s="80"/>
-      <c r="AP42" s="80"/>
-      <c r="AQ42" s="80"/>
-      <c r="AR42" s="80"/>
-      <c r="AS42" s="80"/>
-      <c r="AT42" s="80"/>
-      <c r="AU42" s="80"/>
-      <c r="AV42" s="80"/>
-      <c r="AW42" s="80"/>
-      <c r="AX42" s="80"/>
-      <c r="AY42" s="80"/>
-      <c r="AZ42" s="80"/>
-      <c r="BA42" s="80"/>
-      <c r="BB42" s="80"/>
-      <c r="BC42" s="80"/>
-      <c r="BD42" s="80"/>
-      <c r="BE42" s="80"/>
-      <c r="BF42" s="80"/>
-      <c r="BG42" s="80"/>
-      <c r="BH42" s="80"/>
-      <c r="BI42" s="80"/>
-      <c r="BJ42" s="80"/>
-      <c r="BK42" s="80"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="71"/>
-      <c r="B43" s="78">
-        <v>2.0</v>
-      </c>
-      <c r="C43" s="38">
-        <v>1.0</v>
-      </c>
-      <c r="D43" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="E43" s="80"/>
-      <c r="F43" s="80"/>
-      <c r="G43" s="80"/>
-      <c r="H43" s="81">
-        <v>1.0</v>
-      </c>
-      <c r="I43" s="82"/>
-      <c r="J43" s="82"/>
-      <c r="K43" s="82"/>
-      <c r="L43" s="82"/>
-      <c r="M43" s="82"/>
-      <c r="N43" s="82"/>
-      <c r="O43" s="82"/>
-      <c r="P43" s="82"/>
-      <c r="Q43" s="82"/>
-      <c r="R43" s="82"/>
-      <c r="S43" s="82"/>
-      <c r="T43" s="82"/>
-      <c r="U43" s="82"/>
-      <c r="V43" s="82"/>
-      <c r="W43" s="82"/>
-      <c r="X43" s="82"/>
-      <c r="Y43" s="82"/>
-      <c r="Z43" s="82"/>
-      <c r="AA43" s="80"/>
-      <c r="AB43" s="80"/>
-      <c r="AC43" s="80"/>
-      <c r="AD43" s="80"/>
-      <c r="AE43" s="80"/>
-      <c r="AF43" s="80"/>
-      <c r="AG43" s="80"/>
-      <c r="AH43" s="80"/>
-      <c r="AI43" s="80"/>
-      <c r="AJ43" s="80"/>
-      <c r="AK43" s="80"/>
-      <c r="AL43" s="80"/>
-      <c r="AM43" s="80"/>
-      <c r="AN43" s="80"/>
-      <c r="AO43" s="80"/>
-      <c r="AP43" s="80"/>
-      <c r="AQ43" s="80"/>
-      <c r="AR43" s="80"/>
-      <c r="AS43" s="80"/>
-      <c r="AT43" s="80"/>
-      <c r="AU43" s="80"/>
-      <c r="AV43" s="80"/>
-      <c r="AW43" s="80"/>
-      <c r="AX43" s="80"/>
-      <c r="AY43" s="80"/>
-      <c r="AZ43" s="80"/>
-      <c r="BA43" s="80"/>
-      <c r="BB43" s="80"/>
-      <c r="BC43" s="80"/>
-      <c r="BD43" s="80"/>
-      <c r="BE43" s="80"/>
-      <c r="BF43" s="80"/>
-      <c r="BG43" s="80"/>
-      <c r="BH43" s="80"/>
-      <c r="BI43" s="80"/>
-      <c r="BJ43" s="80"/>
-      <c r="BK43" s="80"/>
+      <c r="B43" s="82"/>
     </row>
     <row r="44">
-      <c r="A44" s="71"/>
-      <c r="B44" s="78">
-        <v>3.0</v>
+      <c r="A44" s="83"/>
+      <c r="B44" s="70" t="s">
+        <v>103</v>
       </c>
       <c r="C44" s="38">
         <v>1.0</v>
       </c>
-      <c r="E44" s="80"/>
-      <c r="F44" s="80"/>
-      <c r="G44" s="80"/>
-      <c r="H44" s="80"/>
-      <c r="I44" s="83">
+      <c r="D44" s="38">
         <v>2.0</v>
       </c>
-      <c r="J44" s="82"/>
-      <c r="K44" s="82"/>
-      <c r="L44" s="82"/>
-      <c r="M44" s="82"/>
-      <c r="N44" s="82"/>
-      <c r="O44" s="82"/>
-      <c r="P44" s="82"/>
-      <c r="Q44" s="82"/>
-      <c r="R44" s="82"/>
-      <c r="S44" s="82"/>
-      <c r="T44" s="82"/>
-      <c r="U44" s="82"/>
-      <c r="V44" s="82"/>
-      <c r="W44" s="82"/>
-      <c r="X44" s="82"/>
-      <c r="Y44" s="82"/>
-      <c r="Z44" s="82"/>
-      <c r="AA44" s="82"/>
-      <c r="AB44" s="80"/>
-      <c r="AC44" s="80"/>
-      <c r="AD44" s="80"/>
-      <c r="AE44" s="80"/>
-      <c r="AF44" s="80"/>
-      <c r="AG44" s="80"/>
-      <c r="AH44" s="80"/>
-      <c r="AI44" s="80"/>
-      <c r="AJ44" s="80"/>
-      <c r="AK44" s="80"/>
-      <c r="AL44" s="80"/>
-      <c r="AM44" s="80"/>
-      <c r="AN44" s="80"/>
-      <c r="AO44" s="80"/>
-      <c r="AP44" s="80"/>
-      <c r="AQ44" s="80"/>
-      <c r="AR44" s="80"/>
-      <c r="AS44" s="80"/>
-      <c r="AT44" s="80"/>
-      <c r="AU44" s="80"/>
-      <c r="AV44" s="80"/>
-      <c r="AW44" s="80"/>
-      <c r="AX44" s="80"/>
-      <c r="AY44" s="80"/>
-      <c r="AZ44" s="80"/>
-      <c r="BA44" s="80"/>
-      <c r="BB44" s="80"/>
-      <c r="BC44" s="80"/>
-      <c r="BD44" s="80"/>
-      <c r="BE44" s="80"/>
-      <c r="BF44" s="80"/>
-      <c r="BG44" s="80"/>
-      <c r="BH44" s="80"/>
-      <c r="BI44" s="80"/>
-      <c r="BJ44" s="80"/>
-      <c r="BK44" s="80"/>
+      <c r="E44" s="84"/>
+      <c r="F44" s="71"/>
     </row>
     <row r="45">
-      <c r="A45" s="71"/>
-      <c r="B45" s="78">
+      <c r="A45" s="83"/>
+      <c r="B45" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" s="38">
+        <v>1.0</v>
+      </c>
+      <c r="D45" s="38">
+        <v>3.0</v>
+      </c>
+      <c r="G45" s="71"/>
+      <c r="H45" s="71"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="79"/>
+      <c r="B46" s="70" t="s">
+        <v>128</v>
+      </c>
+      <c r="C46" s="38">
+        <v>1.0</v>
+      </c>
+      <c r="D46" s="38">
+        <v>3.0</v>
+      </c>
+      <c r="I46" s="71"/>
+      <c r="J46" s="71"/>
+      <c r="K46" s="71"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="79"/>
+      <c r="B47" s="70" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" s="38">
+        <v>1.0</v>
+      </c>
+      <c r="D47" s="38">
+        <v>5.0</v>
+      </c>
+      <c r="L47" s="71"/>
+      <c r="M47" s="71"/>
+      <c r="N47" s="71"/>
+      <c r="O47" s="71"/>
+      <c r="P47" s="71"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="79"/>
+      <c r="B48" s="70" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="38">
         <v>4.0</v>
       </c>
-      <c r="C45" s="38">
-        <v>20.0</v>
-      </c>
-      <c r="D45" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="E45" s="80"/>
-      <c r="F45" s="80"/>
-      <c r="G45" s="80"/>
-      <c r="H45" s="81">
+      <c r="D48" s="38">
+        <v>5.0</v>
+      </c>
+      <c r="J48" s="52"/>
+      <c r="Q48" s="71"/>
+      <c r="R48" s="71"/>
+      <c r="S48" s="71"/>
+      <c r="T48" s="71"/>
+      <c r="U48" s="71"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="79"/>
+      <c r="B49" s="70" t="s">
+        <v>130</v>
+      </c>
+      <c r="C49" s="38">
         <v>1.0</v>
       </c>
-      <c r="I45" s="79"/>
-      <c r="J45" s="79"/>
-      <c r="K45" s="79"/>
-      <c r="L45" s="79"/>
-      <c r="M45" s="79"/>
-      <c r="N45" s="79"/>
-      <c r="O45" s="79"/>
-      <c r="P45" s="79"/>
-      <c r="Q45" s="79"/>
-      <c r="R45" s="79"/>
-      <c r="S45" s="79"/>
-      <c r="T45" s="79"/>
-      <c r="U45" s="79"/>
-      <c r="V45" s="79"/>
-      <c r="W45" s="79"/>
-      <c r="X45" s="79"/>
-      <c r="Y45" s="79"/>
-      <c r="Z45" s="79"/>
-      <c r="AA45" s="79"/>
-      <c r="AB45" s="80"/>
-      <c r="AC45" s="80"/>
-      <c r="AD45" s="80"/>
-      <c r="AE45" s="80"/>
-      <c r="AF45" s="80"/>
-      <c r="AG45" s="80"/>
-      <c r="AH45" s="80"/>
-      <c r="AI45" s="80"/>
-      <c r="AJ45" s="80"/>
-      <c r="AK45" s="80"/>
-      <c r="AL45" s="80"/>
-      <c r="AM45" s="80"/>
-      <c r="AN45" s="80"/>
-      <c r="AO45" s="80"/>
-      <c r="AP45" s="80"/>
-      <c r="AQ45" s="80"/>
-      <c r="AR45" s="80"/>
-      <c r="AS45" s="80"/>
-      <c r="AT45" s="80"/>
-      <c r="AU45" s="80"/>
-      <c r="AV45" s="80"/>
-      <c r="AW45" s="80"/>
-      <c r="AX45" s="80"/>
-      <c r="AY45" s="80"/>
-      <c r="AZ45" s="80"/>
-      <c r="BA45" s="80"/>
-      <c r="BB45" s="80"/>
-      <c r="BC45" s="80"/>
-      <c r="BD45" s="80"/>
-      <c r="BE45" s="80"/>
-      <c r="BF45" s="80"/>
-      <c r="BG45" s="80"/>
-      <c r="BH45" s="80"/>
-      <c r="BI45" s="80"/>
-      <c r="BJ45" s="80"/>
-      <c r="BK45" s="80"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="71"/>
-      <c r="B46" s="78">
-        <v>5.0</v>
-      </c>
-      <c r="C46" s="38">
+      <c r="D49" s="38">
+        <v>1.0</v>
+      </c>
+      <c r="V49" s="71"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="79"/>
+      <c r="B50" s="70" t="s">
+        <v>131</v>
+      </c>
+      <c r="C50" s="38">
+        <v>1.0</v>
+      </c>
+      <c r="D50" s="38">
+        <v>1.0</v>
+      </c>
+      <c r="W50" s="71"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="79"/>
+      <c r="B51" s="70" t="s">
+        <v>132</v>
+      </c>
+      <c r="C51" s="38">
+        <v>1.0</v>
+      </c>
+      <c r="D51" s="38">
+        <v>4.0</v>
+      </c>
+      <c r="X51" s="71"/>
+      <c r="Y51" s="71"/>
+      <c r="Z51" s="71"/>
+      <c r="AA51" s="71"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="79"/>
+      <c r="B52" s="70" t="s">
+        <v>133</v>
+      </c>
+      <c r="C52" s="38">
+        <v>1.0</v>
+      </c>
+      <c r="D52" s="38">
+        <v>3.0</v>
+      </c>
+      <c r="AB52" s="71"/>
+      <c r="AC52" s="71"/>
+      <c r="AD52" s="71"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="79"/>
+      <c r="B53" s="85" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="86">
+        <f t="shared" ref="C53:D53" si="5">SUM(C44:C52)</f>
+        <v>12</v>
+      </c>
+      <c r="D53" s="87">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="81" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" s="82"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="79"/>
+      <c r="B55" s="70" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" s="38">
+        <v>1.0</v>
+      </c>
+      <c r="D55" s="38">
+        <v>4.0</v>
+      </c>
+      <c r="E55" s="71"/>
+      <c r="F55" s="71"/>
+      <c r="G55" s="71"/>
+      <c r="H55" s="71"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="79"/>
+      <c r="B56" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56" s="38">
+        <v>1.0</v>
+      </c>
+      <c r="D56" s="38">
+        <v>1.0</v>
+      </c>
+      <c r="I56" s="71"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="79"/>
+      <c r="B57" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="C57" s="38">
+        <v>1.0</v>
+      </c>
+      <c r="D57" s="38">
+        <v>2.0</v>
+      </c>
+      <c r="J57" s="71"/>
+      <c r="K57" s="71"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="79"/>
+      <c r="B58" s="70" t="s">
+        <v>134</v>
+      </c>
+      <c r="C58" s="38">
+        <v>1.0</v>
+      </c>
+      <c r="D58" s="38">
+        <v>1.0</v>
+      </c>
+      <c r="L58" s="71"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="79"/>
+      <c r="B59" s="70" t="s">
+        <v>135</v>
+      </c>
+      <c r="C59" s="38">
+        <v>2.0</v>
+      </c>
+      <c r="D59" s="38">
+        <v>2.0</v>
+      </c>
+      <c r="M59" s="71"/>
+      <c r="N59" s="71"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="79"/>
+      <c r="B60" s="70" t="s">
+        <v>107</v>
+      </c>
+      <c r="C60" s="38">
+        <v>1.0</v>
+      </c>
+      <c r="D60" s="38">
+        <v>1.0</v>
+      </c>
+      <c r="O60" s="71"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="79"/>
+      <c r="B61" s="70" t="s">
+        <v>132</v>
+      </c>
+      <c r="C61" s="38">
+        <v>3.0</v>
+      </c>
+      <c r="D61" s="38">
         <v>6.0</v>
       </c>
-      <c r="E46" s="80"/>
-      <c r="F46" s="80"/>
-      <c r="G46" s="80"/>
-      <c r="H46" s="80"/>
-      <c r="I46" s="80"/>
-      <c r="J46" s="80"/>
-      <c r="K46" s="80"/>
-      <c r="L46" s="80"/>
-      <c r="M46" s="80"/>
-      <c r="N46" s="80"/>
-      <c r="O46" s="80"/>
-      <c r="P46" s="80"/>
-      <c r="Q46" s="80"/>
-      <c r="R46" s="80"/>
-      <c r="S46" s="80"/>
-      <c r="T46" s="80"/>
-      <c r="U46" s="80"/>
-      <c r="V46" s="80"/>
-      <c r="W46" s="80"/>
-      <c r="X46" s="80"/>
-      <c r="Y46" s="80"/>
-      <c r="Z46" s="80"/>
-      <c r="AA46" s="80"/>
-      <c r="AB46" s="84" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC46" s="85"/>
-      <c r="AD46" s="85"/>
-      <c r="AE46" s="85"/>
-      <c r="AF46" s="85"/>
-      <c r="AG46" s="85"/>
-      <c r="AH46" s="82"/>
-      <c r="AI46" s="82"/>
-      <c r="AJ46" s="82"/>
-      <c r="AK46" s="82"/>
-      <c r="AL46" s="82"/>
-      <c r="AM46" s="82"/>
-      <c r="AN46" s="82"/>
-      <c r="AO46" s="82"/>
-      <c r="AP46" s="82"/>
-      <c r="AQ46" s="80"/>
-      <c r="AR46" s="80"/>
-      <c r="AS46" s="80"/>
-      <c r="AT46" s="80"/>
-      <c r="AU46" s="80"/>
-      <c r="AV46" s="80"/>
-      <c r="AW46" s="80"/>
-      <c r="AX46" s="80"/>
-      <c r="AY46" s="80"/>
-      <c r="AZ46" s="80"/>
-      <c r="BA46" s="80"/>
-      <c r="BB46" s="80"/>
-      <c r="BC46" s="80"/>
-      <c r="BD46" s="80"/>
-      <c r="BE46" s="80"/>
-      <c r="BF46" s="80"/>
-      <c r="BG46" s="80"/>
-      <c r="BH46" s="80"/>
-      <c r="BI46" s="80"/>
-      <c r="BJ46" s="80"/>
-      <c r="BK46" s="80"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="71"/>
-      <c r="B47" s="78">
-        <v>6.0</v>
-      </c>
-      <c r="C47" s="38">
-        <v>5.0</v>
-      </c>
-      <c r="E47" s="80"/>
-      <c r="F47" s="80"/>
-      <c r="G47" s="80"/>
-      <c r="H47" s="80"/>
-      <c r="I47" s="80"/>
-      <c r="J47" s="80"/>
-      <c r="K47" s="80"/>
-      <c r="L47" s="80"/>
-      <c r="M47" s="80"/>
-      <c r="N47" s="80"/>
-      <c r="O47" s="80"/>
-      <c r="P47" s="80"/>
-      <c r="Q47" s="80"/>
-      <c r="R47" s="80"/>
-      <c r="S47" s="80"/>
-      <c r="T47" s="80"/>
-      <c r="U47" s="80"/>
-      <c r="V47" s="80"/>
-      <c r="W47" s="80"/>
-      <c r="X47" s="80"/>
-      <c r="Y47" s="80"/>
-      <c r="Z47" s="80"/>
-      <c r="AA47" s="80"/>
-      <c r="AB47" s="84" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC47" s="85"/>
-      <c r="AD47" s="85"/>
-      <c r="AE47" s="85"/>
-      <c r="AF47" s="85"/>
-      <c r="AG47" s="80"/>
-      <c r="AH47" s="80"/>
-      <c r="AI47" s="80"/>
-      <c r="AJ47" s="80"/>
-      <c r="AK47" s="80"/>
-      <c r="AL47" s="80"/>
-      <c r="AM47" s="80"/>
-      <c r="AN47" s="80"/>
-      <c r="AO47" s="80"/>
-      <c r="AP47" s="80"/>
-      <c r="AQ47" s="80"/>
-      <c r="AR47" s="80"/>
-      <c r="AS47" s="80"/>
-      <c r="AT47" s="80"/>
-      <c r="AU47" s="80"/>
-      <c r="AV47" s="80"/>
-      <c r="AW47" s="80"/>
-      <c r="AX47" s="80"/>
-      <c r="AY47" s="80"/>
-      <c r="AZ47" s="80"/>
-      <c r="BA47" s="80"/>
-      <c r="BB47" s="80"/>
-      <c r="BC47" s="80"/>
-      <c r="BD47" s="80"/>
-      <c r="BE47" s="80"/>
-      <c r="BF47" s="80"/>
-      <c r="BG47" s="80"/>
-      <c r="BH47" s="80"/>
-      <c r="BI47" s="80"/>
-      <c r="BJ47" s="80"/>
-      <c r="BK47" s="80"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="71"/>
-      <c r="B48" s="78">
-        <v>7.0</v>
-      </c>
-      <c r="C48" s="38">
-        <v>10.0</v>
-      </c>
-      <c r="E48" s="80"/>
-      <c r="F48" s="80"/>
-      <c r="G48" s="80"/>
-      <c r="H48" s="80"/>
-      <c r="I48" s="80"/>
-      <c r="J48" s="80"/>
-      <c r="K48" s="80"/>
-      <c r="L48" s="80"/>
-      <c r="M48" s="80"/>
-      <c r="N48" s="80"/>
-      <c r="O48" s="80"/>
-      <c r="P48" s="80"/>
-      <c r="Q48" s="80"/>
-      <c r="R48" s="80"/>
-      <c r="S48" s="80"/>
-      <c r="T48" s="80"/>
-      <c r="U48" s="80"/>
-      <c r="V48" s="80"/>
-      <c r="W48" s="80"/>
-      <c r="X48" s="80"/>
-      <c r="Y48" s="80"/>
-      <c r="Z48" s="80"/>
-      <c r="AA48" s="80"/>
-      <c r="AB48" s="80"/>
-      <c r="AC48" s="80"/>
-      <c r="AD48" s="80"/>
-      <c r="AE48" s="80"/>
-      <c r="AF48" s="80"/>
-      <c r="AG48" s="83">
-        <v>6.0</v>
-      </c>
-      <c r="AH48" s="85"/>
-      <c r="AI48" s="85"/>
-      <c r="AJ48" s="85"/>
-      <c r="AK48" s="85"/>
-      <c r="AL48" s="85"/>
-      <c r="AM48" s="85"/>
-      <c r="AN48" s="85"/>
-      <c r="AO48" s="85"/>
-      <c r="AP48" s="85"/>
-      <c r="AQ48" s="80"/>
-      <c r="AR48" s="80"/>
-      <c r="AS48" s="80"/>
-      <c r="AT48" s="80"/>
-      <c r="AU48" s="80"/>
-      <c r="AV48" s="80"/>
-      <c r="AW48" s="80"/>
-      <c r="AX48" s="80"/>
-      <c r="AY48" s="80"/>
-      <c r="AZ48" s="80"/>
-      <c r="BA48" s="80"/>
-      <c r="BB48" s="80"/>
-      <c r="BC48" s="80"/>
-      <c r="BD48" s="80"/>
-      <c r="BE48" s="80"/>
-      <c r="BF48" s="80"/>
-      <c r="BG48" s="80"/>
-      <c r="BH48" s="80"/>
-      <c r="BI48" s="80"/>
-      <c r="BJ48" s="80"/>
-      <c r="BK48" s="80"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="71"/>
-      <c r="B49" s="78">
-        <v>8.0</v>
-      </c>
-      <c r="C49" s="38">
-        <v>3.0</v>
-      </c>
-      <c r="E49" s="80"/>
-      <c r="F49" s="80"/>
-      <c r="G49" s="80"/>
-      <c r="H49" s="80"/>
-      <c r="I49" s="80"/>
-      <c r="J49" s="80"/>
-      <c r="K49" s="80"/>
-      <c r="L49" s="80"/>
-      <c r="M49" s="80"/>
-      <c r="N49" s="80"/>
-      <c r="O49" s="80"/>
-      <c r="P49" s="80"/>
-      <c r="Q49" s="80"/>
-      <c r="R49" s="80"/>
-      <c r="S49" s="80"/>
-      <c r="T49" s="80"/>
-      <c r="U49" s="80"/>
-      <c r="V49" s="80"/>
-      <c r="W49" s="80"/>
-      <c r="X49" s="80"/>
-      <c r="Y49" s="80"/>
-      <c r="Z49" s="80"/>
-      <c r="AA49" s="80"/>
-      <c r="AB49" s="80"/>
-      <c r="AC49" s="80"/>
-      <c r="AD49" s="80"/>
-      <c r="AE49" s="80"/>
-      <c r="AF49" s="80"/>
-      <c r="AG49" s="80"/>
-      <c r="AH49" s="80"/>
-      <c r="AI49" s="80"/>
-      <c r="AJ49" s="80"/>
-      <c r="AK49" s="80"/>
-      <c r="AL49" s="80"/>
-      <c r="AM49" s="80"/>
-      <c r="AN49" s="80"/>
-      <c r="AO49" s="80"/>
-      <c r="AP49" s="80"/>
-      <c r="AQ49" s="84">
-        <v>7.0</v>
-      </c>
-      <c r="AR49" s="85"/>
-      <c r="AS49" s="85"/>
-      <c r="AT49" s="80"/>
-      <c r="AU49" s="80"/>
-      <c r="AV49" s="80"/>
-      <c r="AW49" s="80"/>
-      <c r="AX49" s="80"/>
-      <c r="AY49" s="80"/>
-      <c r="AZ49" s="80"/>
-      <c r="BA49" s="80"/>
-      <c r="BB49" s="80"/>
-      <c r="BC49" s="80"/>
-      <c r="BD49" s="80"/>
-      <c r="BE49" s="80"/>
-      <c r="BF49" s="80"/>
-      <c r="BG49" s="80"/>
-      <c r="BH49" s="80"/>
-      <c r="BI49" s="80"/>
-      <c r="BJ49" s="80"/>
-      <c r="BK49" s="80"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="71"/>
-      <c r="B50" s="78">
-        <v>9.0</v>
-      </c>
-      <c r="C50" s="38">
-        <v>10.0</v>
-      </c>
-      <c r="E50" s="80"/>
-      <c r="F50" s="80"/>
-      <c r="G50" s="80"/>
-      <c r="H50" s="80"/>
-      <c r="I50" s="80"/>
-      <c r="J50" s="80"/>
-      <c r="K50" s="80"/>
-      <c r="L50" s="80"/>
-      <c r="M50" s="80"/>
-      <c r="N50" s="80"/>
-      <c r="O50" s="80"/>
-      <c r="P50" s="80"/>
-      <c r="Q50" s="80"/>
-      <c r="R50" s="80"/>
-      <c r="S50" s="80"/>
-      <c r="T50" s="80"/>
-      <c r="U50" s="80"/>
-      <c r="V50" s="80"/>
-      <c r="W50" s="80"/>
-      <c r="X50" s="80"/>
-      <c r="Y50" s="80"/>
-      <c r="Z50" s="80"/>
-      <c r="AA50" s="80"/>
-      <c r="AB50" s="80"/>
-      <c r="AC50" s="80"/>
-      <c r="AD50" s="80"/>
-      <c r="AE50" s="80"/>
-      <c r="AF50" s="80"/>
-      <c r="AG50" s="80"/>
-      <c r="AH50" s="80"/>
-      <c r="AI50" s="80"/>
-      <c r="AJ50" s="80"/>
-      <c r="AK50" s="80"/>
-      <c r="AL50" s="80"/>
-      <c r="AM50" s="80"/>
-      <c r="AN50" s="80"/>
-      <c r="AO50" s="80"/>
-      <c r="AP50" s="80"/>
-      <c r="AQ50" s="80"/>
-      <c r="AR50" s="80"/>
-      <c r="AS50" s="80"/>
-      <c r="AT50" s="83">
-        <v>8.0</v>
-      </c>
-      <c r="AU50" s="85"/>
-      <c r="AV50" s="85"/>
-      <c r="AW50" s="85"/>
-      <c r="AX50" s="85"/>
-      <c r="AY50" s="85"/>
-      <c r="AZ50" s="85"/>
-      <c r="BA50" s="85"/>
-      <c r="BB50" s="85"/>
-      <c r="BC50" s="85"/>
-      <c r="BD50" s="80"/>
-      <c r="BE50" s="80"/>
-      <c r="BF50" s="80"/>
-      <c r="BG50" s="80"/>
-      <c r="BH50" s="80"/>
-      <c r="BI50" s="80"/>
-      <c r="BJ50" s="80"/>
-      <c r="BK50" s="80"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="71"/>
-      <c r="B51" s="78">
-        <v>10.0</v>
-      </c>
-      <c r="C51" s="38">
+      <c r="P61" s="71"/>
+      <c r="Q61" s="71"/>
+      <c r="R61" s="71"/>
+      <c r="S61" s="71"/>
+      <c r="T61" s="71"/>
+      <c r="U61" s="71"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="79"/>
+      <c r="B62" s="70" t="s">
+        <v>133</v>
+      </c>
+      <c r="C62" s="38">
+        <v>1.0</v>
+      </c>
+      <c r="D62" s="38">
         <v>2.0</v>
       </c>
-      <c r="E51" s="80"/>
-      <c r="F51" s="80"/>
-      <c r="G51" s="80"/>
-      <c r="H51" s="80"/>
-      <c r="I51" s="80"/>
-      <c r="J51" s="80"/>
-      <c r="K51" s="80"/>
-      <c r="L51" s="80"/>
-      <c r="M51" s="80"/>
-      <c r="N51" s="80"/>
-      <c r="O51" s="80"/>
-      <c r="P51" s="80"/>
-      <c r="Q51" s="80"/>
-      <c r="R51" s="80"/>
-      <c r="S51" s="80"/>
-      <c r="T51" s="80"/>
-      <c r="U51" s="80"/>
-      <c r="V51" s="80"/>
-      <c r="W51" s="80"/>
-      <c r="X51" s="80"/>
-      <c r="Y51" s="80"/>
-      <c r="Z51" s="80"/>
-      <c r="AA51" s="80"/>
-      <c r="AB51" s="80"/>
-      <c r="AC51" s="80"/>
-      <c r="AD51" s="80"/>
-      <c r="AE51" s="80"/>
-      <c r="AF51" s="80"/>
-      <c r="AG51" s="80"/>
-      <c r="AH51" s="80"/>
-      <c r="AI51" s="80"/>
-      <c r="AJ51" s="80"/>
-      <c r="AK51" s="80"/>
-      <c r="AL51" s="80"/>
-      <c r="AM51" s="80"/>
-      <c r="AN51" s="80"/>
-      <c r="AO51" s="80"/>
-      <c r="AP51" s="80"/>
-      <c r="AQ51" s="80"/>
-      <c r="AR51" s="80"/>
-      <c r="AS51" s="80"/>
-      <c r="AT51" s="80"/>
-      <c r="AU51" s="80"/>
-      <c r="AV51" s="80"/>
-      <c r="AW51" s="80"/>
-      <c r="AX51" s="80"/>
-      <c r="AY51" s="80"/>
-      <c r="AZ51" s="80"/>
-      <c r="BA51" s="80"/>
-      <c r="BB51" s="80"/>
-      <c r="BC51" s="80"/>
-      <c r="BD51" s="83">
-        <v>9.0</v>
-      </c>
-      <c r="BE51" s="85"/>
-      <c r="BF51" s="80"/>
-      <c r="BG51" s="80"/>
-      <c r="BH51" s="80"/>
-      <c r="BI51" s="80"/>
-      <c r="BJ51" s="80"/>
-      <c r="BK51" s="80"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="71"/>
-      <c r="B52" s="78">
-        <v>11.0</v>
-      </c>
-      <c r="C52" s="38">
-        <v>6.0</v>
-      </c>
-      <c r="E52" s="80"/>
-      <c r="F52" s="80"/>
-      <c r="G52" s="80"/>
-      <c r="H52" s="80"/>
-      <c r="I52" s="80"/>
-      <c r="J52" s="80"/>
-      <c r="K52" s="80"/>
-      <c r="L52" s="80"/>
-      <c r="M52" s="80"/>
-      <c r="N52" s="80"/>
-      <c r="O52" s="80"/>
-      <c r="P52" s="80"/>
-      <c r="Q52" s="80"/>
-      <c r="R52" s="80"/>
-      <c r="S52" s="80"/>
-      <c r="T52" s="80"/>
-      <c r="U52" s="80"/>
-      <c r="V52" s="80"/>
-      <c r="W52" s="80"/>
-      <c r="X52" s="80"/>
-      <c r="Y52" s="80"/>
-      <c r="Z52" s="80"/>
-      <c r="AA52" s="80"/>
-      <c r="AB52" s="80"/>
-      <c r="AC52" s="80"/>
-      <c r="AD52" s="80"/>
-      <c r="AE52" s="80"/>
-      <c r="AF52" s="80"/>
-      <c r="AG52" s="80"/>
-      <c r="AH52" s="80"/>
-      <c r="AI52" s="80"/>
-      <c r="AJ52" s="80"/>
-      <c r="AK52" s="80"/>
-      <c r="AL52" s="80"/>
-      <c r="AM52" s="80"/>
-      <c r="AN52" s="80"/>
-      <c r="AO52" s="80"/>
-      <c r="AP52" s="80"/>
-      <c r="AQ52" s="80"/>
-      <c r="AR52" s="80"/>
-      <c r="AS52" s="80"/>
-      <c r="AT52" s="80"/>
-      <c r="AU52" s="80"/>
-      <c r="AV52" s="80"/>
-      <c r="AW52" s="80"/>
-      <c r="AX52" s="80"/>
-      <c r="AY52" s="80"/>
-      <c r="AZ52" s="80"/>
-      <c r="BA52" s="80"/>
-      <c r="BB52" s="80"/>
-      <c r="BC52" s="80"/>
-      <c r="BD52" s="80"/>
-      <c r="BE52" s="80"/>
-      <c r="BF52" s="83">
-        <v>10.0</v>
-      </c>
-      <c r="BG52" s="85"/>
-      <c r="BH52" s="85"/>
-      <c r="BI52" s="85"/>
-      <c r="BJ52" s="85"/>
-      <c r="BK52" s="85"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="71"/>
-      <c r="B53" s="86" t="s">
-        <v>92</v>
-      </c>
-      <c r="C53" s="87">
-        <f t="shared" ref="C53:D53" si="5">SUM(C42:C52)</f>
+      <c r="V62" s="71"/>
+      <c r="W62" s="71"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="79"/>
+      <c r="B63" s="85" t="s">
+        <v>110</v>
+      </c>
+      <c r="C63" s="82">
+        <f t="shared" ref="C63:D63" si="6">SUM(C57:C62)</f>
+        <v>9</v>
+      </c>
+      <c r="D63" s="88">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="89"/>
+      <c r="B64" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" s="91">
+        <f t="shared" ref="C64:D64" si="7">SUM(C10,C23,C32,C42,C53,C63)</f>
         <v>67</v>
       </c>
-      <c r="D53" s="88">
-        <f t="shared" si="5"/>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="76" t="s">
-        <v>12</v>
-      </c>
-      <c r="B54" s="77"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="71"/>
-      <c r="B55" s="77"/>
-      <c r="C55" s="38">
-        <v>3.0</v>
-      </c>
-      <c r="D55" s="38">
-        <v>1.0</v>
-      </c>
-      <c r="E55" s="45"/>
-      <c r="F55" s="50"/>
-      <c r="G55" s="50"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="71"/>
-      <c r="B56" s="77"/>
-      <c r="C56" s="38">
-        <v>4.0</v>
-      </c>
-      <c r="H56" s="53">
-        <v>1.0</v>
-      </c>
-      <c r="I56" s="50"/>
-      <c r="J56" s="50"/>
-      <c r="K56" s="50"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="71"/>
-      <c r="B57" s="77"/>
-      <c r="C57" s="38">
-        <v>6.0</v>
-      </c>
-      <c r="L57" s="49">
-        <v>2.0</v>
-      </c>
-      <c r="M57" s="46"/>
-      <c r="N57" s="46"/>
-      <c r="O57" s="46"/>
-      <c r="P57" s="46"/>
-      <c r="Q57" s="46"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="71"/>
-      <c r="B58" s="77"/>
-      <c r="C58" s="38">
-        <v>6.0</v>
-      </c>
-      <c r="L58" s="49">
-        <v>2.0</v>
-      </c>
-      <c r="M58" s="46"/>
-      <c r="N58" s="46"/>
-      <c r="O58" s="46"/>
-      <c r="P58" s="46"/>
-      <c r="Q58" s="46"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="71"/>
-      <c r="B59" s="77"/>
-      <c r="C59" s="38">
-        <v>4.0</v>
-      </c>
-      <c r="R59" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="S59" s="46"/>
-      <c r="T59" s="46"/>
-      <c r="U59" s="46"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="71"/>
-      <c r="B60" s="77"/>
-      <c r="C60" s="38">
-        <v>6.0</v>
-      </c>
-      <c r="U60" s="38"/>
-      <c r="V60" s="49">
-        <v>5.0</v>
-      </c>
-      <c r="W60" s="46"/>
-      <c r="X60" s="46"/>
-      <c r="Y60" s="46"/>
-      <c r="Z60" s="46"/>
-      <c r="AA60" s="46"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="71"/>
-      <c r="B61" s="86" t="s">
-        <v>92</v>
-      </c>
-      <c r="C61" s="77">
-        <f t="shared" ref="C61:D61" si="6">SUM(C57:C60)</f>
-        <v>22</v>
-      </c>
-      <c r="D61" s="89">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V61" s="38"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="90"/>
-      <c r="B62" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="C62" s="92">
-        <f t="shared" ref="C62:D62" si="7">SUM(C13,C24,C30,C40,C53,C61)</f>
-        <v>212</v>
-      </c>
-      <c r="D62" s="93">
+      <c r="D64" s="92">
         <f t="shared" si="7"/>
-        <v>8.25</v>
-      </c>
-    </row>
-    <row r="63" ht="15.75" customHeight="1">
-      <c r="B63" s="94"/>
-    </row>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="B65" s="93"/>
+    </row>
     <row r="66" ht="15.75" customHeight="1"/>
     <row r="67" ht="15.75" customHeight="1"/>
     <row r="68" ht="15.75" customHeight="1"/>
@@ -9824,10 +9183,15 @@
     <row r="1040" ht="15.75" customHeight="1"/>
     <row r="1041" ht="15.75" customHeight="1"/>
     <row r="1042" ht="15.75" customHeight="1"/>
+    <row r="1043" ht="15.75" customHeight="1"/>
+    <row r="1044" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>